--- a/Datos.xlsx
+++ b/Datos.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://estudianteccr-my.sharepoint.com/personal/alonso_jimenez_estudiantec_cr/Documents/Documentos/GitHub/BateriaMecanica/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1629" documentId="8_{093C159C-7666-4CAC-BAF8-9FBE223BE503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C80CD8E-C241-4D99-8574-33165DA2CBE0}"/>
+  <xr:revisionPtr revIDLastSave="1633" documentId="8_{093C159C-7666-4CAC-BAF8-9FBE223BE503}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9BFC6889-3F65-480E-BE94-D0134C326681}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CF66EA82-46B6-45AA-A4C4-CE66EEF50D98}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{CF66EA82-46B6-45AA-A4C4-CE66EEF50D98}"/>
   </bookViews>
   <sheets>
     <sheet name="Luz roja 4v" sheetId="2" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="5">
   <si>
     <t>Altura</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Tiempo</t>
+  </si>
+  <si>
+    <t>+</t>
   </si>
 </sst>
 </file>
@@ -421,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83154DC5-7C42-44AE-8287-5490E754021B}">
   <dimension ref="D2:P135"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="Q143" sqref="Q143"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -481,9 +484,15 @@
       <c r="K5">
         <v>0.13</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
+      <c r="N5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="6" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D6">
@@ -502,6 +511,16 @@
       <c r="K6">
         <v>0.13</v>
       </c>
+      <c r="N6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6">
+        <f>1/5</f>
+        <v>0.2</v>
+      </c>
+      <c r="P6">
+        <v>0.13</v>
+      </c>
     </row>
     <row r="7" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D7">
@@ -520,6 +539,16 @@
       <c r="K7">
         <v>1.38</v>
       </c>
+      <c r="N7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O7">
+        <f t="shared" ref="O7:O70" si="1">O6+1/5</f>
+        <v>0.4</v>
+      </c>
+      <c r="P7">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="8" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D8">
@@ -538,6 +567,16 @@
       <c r="K8">
         <v>1.38</v>
       </c>
+      <c r="N8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O8">
+        <f t="shared" si="1"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="P8">
+        <v>1.38</v>
+      </c>
     </row>
     <row r="9" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D9">
@@ -556,6 +595,16 @@
       <c r="K9">
         <v>1.26</v>
       </c>
+      <c r="N9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="1"/>
+        <v>0.8</v>
+      </c>
+      <c r="P9">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="10" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D10">
@@ -574,6 +623,16 @@
       <c r="K10">
         <v>1.26</v>
       </c>
+      <c r="N10" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O10">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="11" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D11">
@@ -592,6 +651,16 @@
       <c r="K11">
         <v>1.94</v>
       </c>
+      <c r="N11" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>1.2</v>
+      </c>
+      <c r="P11">
+        <v>1.94</v>
+      </c>
     </row>
     <row r="12" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D12">
@@ -610,6 +679,16 @@
       <c r="K12">
         <v>1.94</v>
       </c>
+      <c r="N12" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O12">
+        <f t="shared" si="1"/>
+        <v>1.4</v>
+      </c>
+      <c r="P12">
+        <v>1.94</v>
+      </c>
     </row>
     <row r="13" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D13">
@@ -628,6 +707,16 @@
       <c r="K13">
         <v>1.95</v>
       </c>
+      <c r="N13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O13">
+        <f t="shared" si="1"/>
+        <v>1.5999999999999999</v>
+      </c>
+      <c r="P13">
+        <v>1.95</v>
+      </c>
     </row>
     <row r="14" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D14">
@@ -646,6 +735,16 @@
       <c r="K14">
         <v>1.98</v>
       </c>
+      <c r="N14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14">
+        <f t="shared" si="1"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="P14">
+        <v>1.98</v>
+      </c>
     </row>
     <row r="15" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D15">
@@ -664,6 +763,16 @@
       <c r="K15">
         <v>2</v>
       </c>
+      <c r="N15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O15">
+        <f t="shared" si="1"/>
+        <v>1.9999999999999998</v>
+      </c>
+      <c r="P15">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="4:16" x14ac:dyDescent="0.3">
       <c r="D16">
@@ -682,8 +791,18 @@
       <c r="K16">
         <v>1.96</v>
       </c>
-    </row>
-    <row r="17" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O16">
+        <f t="shared" si="1"/>
+        <v>2.1999999999999997</v>
+      </c>
+      <c r="P16">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="17" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I17">
         <f t="shared" si="0"/>
         <v>2.4</v>
@@ -694,8 +813,18 @@
       <c r="K17">
         <v>1.96</v>
       </c>
-    </row>
-    <row r="18" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N17" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O17">
+        <f t="shared" si="1"/>
+        <v>2.4</v>
+      </c>
+      <c r="P17">
+        <v>1.96</v>
+      </c>
+    </row>
+    <row r="18" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I18">
         <f t="shared" si="0"/>
         <v>2.6</v>
@@ -706,8 +835,18 @@
       <c r="K18">
         <v>2.12</v>
       </c>
-    </row>
-    <row r="19" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N18" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O18">
+        <f t="shared" si="1"/>
+        <v>2.6</v>
+      </c>
+      <c r="P18">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="19" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I19">
         <f t="shared" si="0"/>
         <v>2.8000000000000003</v>
@@ -718,8 +857,18 @@
       <c r="K19">
         <v>2.12</v>
       </c>
-    </row>
-    <row r="20" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O19">
+        <f t="shared" si="1"/>
+        <v>2.8000000000000003</v>
+      </c>
+      <c r="P19">
+        <v>2.12</v>
+      </c>
+    </row>
+    <row r="20" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I20">
         <f t="shared" si="0"/>
         <v>3.0000000000000004</v>
@@ -730,8 +879,18 @@
       <c r="K20">
         <v>2.48</v>
       </c>
-    </row>
-    <row r="21" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O20">
+        <f t="shared" si="1"/>
+        <v>3.0000000000000004</v>
+      </c>
+      <c r="P20">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="21" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I21">
         <f t="shared" si="0"/>
         <v>3.2000000000000006</v>
@@ -742,8 +901,18 @@
       <c r="K21">
         <v>2.48</v>
       </c>
-    </row>
-    <row r="22" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O21">
+        <f t="shared" si="1"/>
+        <v>3.2000000000000006</v>
+      </c>
+      <c r="P21">
+        <v>2.48</v>
+      </c>
+    </row>
+    <row r="22" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I22">
         <f t="shared" si="0"/>
         <v>3.4000000000000008</v>
@@ -754,8 +923,18 @@
       <c r="K22">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="23" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N22" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O22">
+        <f t="shared" si="1"/>
+        <v>3.4000000000000008</v>
+      </c>
+      <c r="P22">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="23" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I23">
         <f t="shared" si="0"/>
         <v>3.600000000000001</v>
@@ -766,8 +945,18 @@
       <c r="K23">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="24" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N23" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O23">
+        <f t="shared" si="1"/>
+        <v>3.600000000000001</v>
+      </c>
+      <c r="P23">
+        <v>2.6</v>
+      </c>
+    </row>
+    <row r="24" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I24">
         <f t="shared" si="0"/>
         <v>3.8000000000000012</v>
@@ -778,8 +967,18 @@
       <c r="K24">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="25" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O24">
+        <f t="shared" si="1"/>
+        <v>3.8000000000000012</v>
+      </c>
+      <c r="P24">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="25" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I25">
         <f t="shared" si="0"/>
         <v>4.0000000000000009</v>
@@ -790,8 +989,18 @@
       <c r="K25">
         <v>2.41</v>
       </c>
-    </row>
-    <row r="26" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O25">
+        <f t="shared" si="1"/>
+        <v>4.0000000000000009</v>
+      </c>
+      <c r="P25">
+        <v>2.41</v>
+      </c>
+    </row>
+    <row r="26" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I26">
         <f t="shared" si="0"/>
         <v>4.2000000000000011</v>
@@ -802,8 +1011,18 @@
       <c r="K26">
         <v>2.88</v>
       </c>
-    </row>
-    <row r="27" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O26">
+        <f t="shared" si="1"/>
+        <v>4.2000000000000011</v>
+      </c>
+      <c r="P26">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="27" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I27">
         <f t="shared" si="0"/>
         <v>4.4000000000000012</v>
@@ -814,8 +1033,18 @@
       <c r="K27">
         <v>2.88</v>
       </c>
-    </row>
-    <row r="28" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="1"/>
+        <v>4.4000000000000012</v>
+      </c>
+      <c r="P27">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="28" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I28">
         <f t="shared" si="0"/>
         <v>4.6000000000000014</v>
@@ -826,8 +1055,18 @@
       <c r="K28">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="29" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N28" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O28">
+        <f t="shared" si="1"/>
+        <v>4.6000000000000014</v>
+      </c>
+      <c r="P28">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="29" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I29">
         <f t="shared" si="0"/>
         <v>4.8000000000000016</v>
@@ -838,8 +1077,18 @@
       <c r="K29">
         <v>3.25</v>
       </c>
-    </row>
-    <row r="30" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N29" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="1"/>
+        <v>4.8000000000000016</v>
+      </c>
+      <c r="P29">
+        <v>3.25</v>
+      </c>
+    </row>
+    <row r="30" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I30">
         <f t="shared" si="0"/>
         <v>5.0000000000000018</v>
@@ -850,8 +1099,18 @@
       <c r="K30">
         <v>3.31</v>
       </c>
-    </row>
-    <row r="31" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N30" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O30">
+        <f t="shared" si="1"/>
+        <v>5.0000000000000018</v>
+      </c>
+      <c r="P30">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="31" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I31">
         <f t="shared" si="0"/>
         <v>5.200000000000002</v>
@@ -862,8 +1121,18 @@
       <c r="K31">
         <v>3.31</v>
       </c>
-    </row>
-    <row r="32" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N31" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O31">
+        <f t="shared" si="1"/>
+        <v>5.200000000000002</v>
+      </c>
+      <c r="P31">
+        <v>3.31</v>
+      </c>
+    </row>
+    <row r="32" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I32">
         <f t="shared" si="0"/>
         <v>5.4000000000000021</v>
@@ -874,8 +1143,18 @@
       <c r="K32">
         <v>3.85</v>
       </c>
-    </row>
-    <row r="33" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O32">
+        <f t="shared" si="1"/>
+        <v>5.4000000000000021</v>
+      </c>
+      <c r="P32">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="33" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I33">
         <f t="shared" si="0"/>
         <v>5.6000000000000023</v>
@@ -886,8 +1165,18 @@
       <c r="K33">
         <v>3.85</v>
       </c>
-    </row>
-    <row r="34" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O33">
+        <f t="shared" si="1"/>
+        <v>5.6000000000000023</v>
+      </c>
+      <c r="P33">
+        <v>3.85</v>
+      </c>
+    </row>
+    <row r="34" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I34">
         <f t="shared" si="0"/>
         <v>5.8000000000000025</v>
@@ -898,8 +1187,18 @@
       <c r="K34">
         <v>3.64</v>
       </c>
-    </row>
-    <row r="35" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N34" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O34">
+        <f t="shared" si="1"/>
+        <v>5.8000000000000025</v>
+      </c>
+      <c r="P34">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="35" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I35">
         <f t="shared" si="0"/>
         <v>6.0000000000000027</v>
@@ -910,8 +1209,18 @@
       <c r="K35">
         <v>3.64</v>
       </c>
-    </row>
-    <row r="36" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O35">
+        <f t="shared" si="1"/>
+        <v>6.0000000000000027</v>
+      </c>
+      <c r="P35">
+        <v>3.64</v>
+      </c>
+    </row>
+    <row r="36" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I36">
         <f t="shared" si="0"/>
         <v>6.2000000000000028</v>
@@ -922,8 +1231,18 @@
       <c r="K36">
         <v>4.07</v>
       </c>
-    </row>
-    <row r="37" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N36" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O36">
+        <f t="shared" si="1"/>
+        <v>6.2000000000000028</v>
+      </c>
+      <c r="P36">
+        <v>4.07</v>
+      </c>
+    </row>
+    <row r="37" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I37">
         <f t="shared" si="0"/>
         <v>6.400000000000003</v>
@@ -934,8 +1253,18 @@
       <c r="K37">
         <v>4.09</v>
       </c>
-    </row>
-    <row r="38" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N37" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O37">
+        <f t="shared" si="1"/>
+        <v>6.400000000000003</v>
+      </c>
+      <c r="P37">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="38" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I38">
         <f t="shared" si="0"/>
         <v>6.6000000000000032</v>
@@ -946,10 +1275,20 @@
       <c r="K38">
         <v>4.09</v>
       </c>
-    </row>
-    <row r="39" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O38">
+        <f t="shared" si="1"/>
+        <v>6.6000000000000032</v>
+      </c>
+      <c r="P38">
+        <v>4.09</v>
+      </c>
+    </row>
+    <row r="39" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I39">
-        <f t="shared" ref="I39:I70" si="1">I38+1/5</f>
+        <f t="shared" ref="I39:I70" si="2">I38+1/5</f>
         <v>6.8000000000000034</v>
       </c>
       <c r="J39">
@@ -958,10 +1297,20 @@
       <c r="K39">
         <v>2.86</v>
       </c>
-    </row>
-    <row r="40" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O39">
+        <f t="shared" si="1"/>
+        <v>6.8000000000000034</v>
+      </c>
+      <c r="P39">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="40" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.0000000000000036</v>
       </c>
       <c r="J40">
@@ -970,10 +1319,20 @@
       <c r="K40">
         <v>2.86</v>
       </c>
-    </row>
-    <row r="41" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N40" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O40">
+        <f t="shared" si="1"/>
+        <v>7.0000000000000036</v>
+      </c>
+      <c r="P40">
+        <v>2.86</v>
+      </c>
+    </row>
+    <row r="41" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.2000000000000037</v>
       </c>
       <c r="J41">
@@ -982,10 +1341,20 @@
       <c r="K41">
         <v>2</v>
       </c>
-    </row>
-    <row r="42" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N41" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O41">
+        <f t="shared" si="1"/>
+        <v>7.2000000000000037</v>
+      </c>
+      <c r="P41">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.4000000000000039</v>
       </c>
       <c r="J42">
@@ -994,10 +1363,20 @@
       <c r="K42">
         <v>2</v>
       </c>
-    </row>
-    <row r="43" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N42" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O42">
+        <f t="shared" si="1"/>
+        <v>7.4000000000000039</v>
+      </c>
+      <c r="P42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.6000000000000041</v>
       </c>
       <c r="J43">
@@ -1006,10 +1385,20 @@
       <c r="K43">
         <v>2.16</v>
       </c>
-    </row>
-    <row r="44" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N43" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O43">
+        <f t="shared" si="1"/>
+        <v>7.6000000000000041</v>
+      </c>
+      <c r="P43">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="44" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7.8000000000000043</v>
       </c>
       <c r="J44">
@@ -1018,10 +1407,20 @@
       <c r="K44">
         <v>2.16</v>
       </c>
-    </row>
-    <row r="45" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N44" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O44">
+        <f t="shared" si="1"/>
+        <v>7.8000000000000043</v>
+      </c>
+      <c r="P44">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="45" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.0000000000000036</v>
       </c>
       <c r="J45">
@@ -1030,10 +1429,20 @@
       <c r="K45">
         <v>2.98</v>
       </c>
-    </row>
-    <row r="46" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O45">
+        <f t="shared" si="1"/>
+        <v>8.0000000000000036</v>
+      </c>
+      <c r="P45">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="46" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.2000000000000028</v>
       </c>
       <c r="J46">
@@ -1042,10 +1451,20 @@
       <c r="K46">
         <v>2.98</v>
       </c>
-    </row>
-    <row r="47" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N46" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O46">
+        <f t="shared" si="1"/>
+        <v>8.2000000000000028</v>
+      </c>
+      <c r="P46">
+        <v>2.98</v>
+      </c>
+    </row>
+    <row r="47" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.4000000000000021</v>
       </c>
       <c r="J47">
@@ -1054,10 +1473,20 @@
       <c r="K47">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="48" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N47" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="1"/>
+        <v>8.4000000000000021</v>
+      </c>
+      <c r="P47">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="48" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.6000000000000014</v>
       </c>
       <c r="J48">
@@ -1066,10 +1495,20 @@
       <c r="K48">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="49" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N48" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O48">
+        <f t="shared" si="1"/>
+        <v>8.6000000000000014</v>
+      </c>
+      <c r="P48">
+        <v>3.3</v>
+      </c>
+    </row>
+    <row r="49" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8.8000000000000007</v>
       </c>
       <c r="J49">
@@ -1078,10 +1517,20 @@
       <c r="K49">
         <v>3.63</v>
       </c>
-    </row>
-    <row r="50" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N49" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O49">
+        <f t="shared" si="1"/>
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="P49">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="50" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="J50">
@@ -1090,10 +1539,20 @@
       <c r="K50">
         <v>3.63</v>
       </c>
-    </row>
-    <row r="51" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O50">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="P50">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="51" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.1999999999999993</v>
       </c>
       <c r="J51">
@@ -1102,10 +1561,20 @@
       <c r="K51">
         <v>3.57</v>
       </c>
-    </row>
-    <row r="52" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N51" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O51">
+        <f t="shared" si="1"/>
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="P51">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="52" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.3999999999999986</v>
       </c>
       <c r="J52">
@@ -1114,10 +1583,20 @@
       <c r="K52">
         <v>3.57</v>
       </c>
-    </row>
-    <row r="53" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N52" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O52">
+        <f t="shared" si="1"/>
+        <v>9.3999999999999986</v>
+      </c>
+      <c r="P52">
+        <v>3.57</v>
+      </c>
+    </row>
+    <row r="53" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.5999999999999979</v>
       </c>
       <c r="J53">
@@ -1126,10 +1605,20 @@
       <c r="K53">
         <v>3.67</v>
       </c>
-    </row>
-    <row r="54" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N53" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O53">
+        <f t="shared" si="1"/>
+        <v>9.5999999999999979</v>
+      </c>
+      <c r="P53">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="54" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.7999999999999972</v>
       </c>
       <c r="J54">
@@ -1138,10 +1627,20 @@
       <c r="K54">
         <v>3.67</v>
       </c>
-    </row>
-    <row r="55" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N54" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O54">
+        <f t="shared" si="1"/>
+        <v>9.7999999999999972</v>
+      </c>
+      <c r="P54">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="55" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9.9999999999999964</v>
       </c>
       <c r="J55">
@@ -1150,10 +1649,20 @@
       <c r="K55">
         <v>3.89</v>
       </c>
-    </row>
-    <row r="56" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N55" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O55">
+        <f t="shared" si="1"/>
+        <v>9.9999999999999964</v>
+      </c>
+      <c r="P55">
+        <v>3.89</v>
+      </c>
+    </row>
+    <row r="56" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.199999999999996</v>
       </c>
       <c r="J56">
@@ -1162,10 +1671,20 @@
       <c r="K56">
         <v>3.74</v>
       </c>
-    </row>
-    <row r="57" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N56" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O56">
+        <f t="shared" si="1"/>
+        <v>10.199999999999996</v>
+      </c>
+      <c r="P56">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="57" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.399999999999995</v>
       </c>
       <c r="J57">
@@ -1174,10 +1693,20 @@
       <c r="K57">
         <v>3.74</v>
       </c>
-    </row>
-    <row r="58" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N57" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O57">
+        <f t="shared" si="1"/>
+        <v>10.399999999999995</v>
+      </c>
+      <c r="P57">
+        <v>3.74</v>
+      </c>
+    </row>
+    <row r="58" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.599999999999994</v>
       </c>
       <c r="J58">
@@ -1186,10 +1715,20 @@
       <c r="K58">
         <v>4.1500000000000004</v>
       </c>
-    </row>
-    <row r="59" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N58" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O58">
+        <f t="shared" si="1"/>
+        <v>10.599999999999994</v>
+      </c>
+      <c r="P58">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="59" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.799999999999994</v>
       </c>
       <c r="J59">
@@ -1198,10 +1737,20 @@
       <c r="K59">
         <v>4.1500000000000004</v>
       </c>
-    </row>
-    <row r="60" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N59" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O59">
+        <f t="shared" si="1"/>
+        <v>10.799999999999994</v>
+      </c>
+      <c r="P59">
+        <v>4.1500000000000004</v>
+      </c>
+    </row>
+    <row r="60" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10.999999999999993</v>
       </c>
       <c r="J60">
@@ -1210,10 +1759,20 @@
       <c r="K60">
         <v>3.83</v>
       </c>
-    </row>
-    <row r="61" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N60" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O60">
+        <f t="shared" si="1"/>
+        <v>10.999999999999993</v>
+      </c>
+      <c r="P60">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="61" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.199999999999992</v>
       </c>
       <c r="J61">
@@ -1222,10 +1781,20 @@
       <c r="K61">
         <v>3.83</v>
       </c>
-    </row>
-    <row r="62" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O61">
+        <f t="shared" si="1"/>
+        <v>11.199999999999992</v>
+      </c>
+      <c r="P61">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="62" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.399999999999991</v>
       </c>
       <c r="J62">
@@ -1234,10 +1803,20 @@
       <c r="K62">
         <v>3.91</v>
       </c>
-    </row>
-    <row r="63" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N62" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O62">
+        <f t="shared" si="1"/>
+        <v>11.399999999999991</v>
+      </c>
+      <c r="P62">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="63" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.599999999999991</v>
       </c>
       <c r="J63">
@@ -1246,10 +1825,20 @@
       <c r="K63">
         <v>3.91</v>
       </c>
-    </row>
-    <row r="64" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N63" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O63">
+        <f t="shared" si="1"/>
+        <v>11.599999999999991</v>
+      </c>
+      <c r="P63">
+        <v>3.91</v>
+      </c>
+    </row>
+    <row r="64" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.79999999999999</v>
       </c>
       <c r="J64">
@@ -1258,10 +1847,20 @@
       <c r="K64">
         <v>3.67</v>
       </c>
-    </row>
-    <row r="65" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N64" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O64">
+        <f t="shared" si="1"/>
+        <v>11.79999999999999</v>
+      </c>
+      <c r="P64">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="65" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>11.999999999999989</v>
       </c>
       <c r="J65">
@@ -1270,10 +1869,20 @@
       <c r="K65">
         <v>3.67</v>
       </c>
-    </row>
-    <row r="66" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N65" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O65">
+        <f t="shared" si="1"/>
+        <v>11.999999999999989</v>
+      </c>
+      <c r="P65">
+        <v>3.67</v>
+      </c>
+    </row>
+    <row r="66" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.199999999999989</v>
       </c>
       <c r="J66">
@@ -1282,10 +1891,20 @@
       <c r="K66">
         <v>3.77</v>
       </c>
-    </row>
-    <row r="67" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N66" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O66">
+        <f t="shared" si="1"/>
+        <v>12.199999999999989</v>
+      </c>
+      <c r="P66">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="67" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.399999999999988</v>
       </c>
       <c r="J67">
@@ -1294,10 +1913,20 @@
       <c r="K67">
         <v>3.77</v>
       </c>
-    </row>
-    <row r="68" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O67">
+        <f t="shared" si="1"/>
+        <v>12.399999999999988</v>
+      </c>
+      <c r="P67">
+        <v>3.77</v>
+      </c>
+    </row>
+    <row r="68" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.599999999999987</v>
       </c>
       <c r="J68">
@@ -1306,10 +1935,20 @@
       <c r="K68">
         <v>3.66</v>
       </c>
-    </row>
-    <row r="69" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O68">
+        <f t="shared" si="1"/>
+        <v>12.599999999999987</v>
+      </c>
+      <c r="P68">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="69" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.799999999999986</v>
       </c>
       <c r="J69">
@@ -1318,10 +1957,20 @@
       <c r="K69">
         <v>3.66</v>
       </c>
-    </row>
-    <row r="70" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N69" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O69">
+        <f t="shared" si="1"/>
+        <v>12.799999999999986</v>
+      </c>
+      <c r="P69">
+        <v>3.66</v>
+      </c>
+    </row>
+    <row r="70" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>12.999999999999986</v>
       </c>
       <c r="J70">
@@ -1330,10 +1979,20 @@
       <c r="K70">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="71" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N70" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O70">
+        <f t="shared" si="1"/>
+        <v>12.999999999999986</v>
+      </c>
+      <c r="P70">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="71" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I71">
-        <f t="shared" ref="I71:I102" si="2">I70+1/5</f>
+        <f t="shared" ref="I71:I102" si="3">I70+1/5</f>
         <v>13.199999999999985</v>
       </c>
       <c r="J71">
@@ -1342,10 +2001,20 @@
       <c r="K71">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="72" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N71" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O71">
+        <f t="shared" ref="O71:O134" si="4">O70+1/5</f>
+        <v>13.199999999999985</v>
+      </c>
+      <c r="P71">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="72" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.399999999999984</v>
       </c>
       <c r="J72">
@@ -1354,10 +2023,20 @@
       <c r="K72">
         <v>3.65</v>
       </c>
-    </row>
-    <row r="73" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O72">
+        <f t="shared" si="4"/>
+        <v>13.399999999999984</v>
+      </c>
+      <c r="P72">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="73" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.599999999999984</v>
       </c>
       <c r="J73">
@@ -1366,10 +2045,20 @@
       <c r="K73">
         <v>3.65</v>
       </c>
-    </row>
-    <row r="74" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N73" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O73">
+        <f t="shared" si="4"/>
+        <v>13.599999999999984</v>
+      </c>
+      <c r="P73">
+        <v>3.65</v>
+      </c>
+    </row>
+    <row r="74" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.799999999999983</v>
       </c>
       <c r="J74">
@@ -1378,10 +2067,20 @@
       <c r="K74">
         <v>3.78</v>
       </c>
-    </row>
-    <row r="75" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N74" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O74">
+        <f t="shared" si="4"/>
+        <v>13.799999999999983</v>
+      </c>
+      <c r="P74">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="75" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>13.999999999999982</v>
       </c>
       <c r="J75">
@@ -1390,10 +2089,20 @@
       <c r="K75">
         <v>3.78</v>
       </c>
-    </row>
-    <row r="76" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N75" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O75">
+        <f t="shared" si="4"/>
+        <v>13.999999999999982</v>
+      </c>
+      <c r="P75">
+        <v>3.78</v>
+      </c>
+    </row>
+    <row r="76" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.199999999999982</v>
       </c>
       <c r="J76">
@@ -1402,10 +2111,20 @@
       <c r="K76">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="77" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N76" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O76">
+        <f t="shared" si="4"/>
+        <v>14.199999999999982</v>
+      </c>
+      <c r="P76">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="77" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.399999999999981</v>
       </c>
       <c r="J77">
@@ -1414,10 +2133,20 @@
       <c r="K77">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="78" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N77" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O77">
+        <f t="shared" si="4"/>
+        <v>14.399999999999981</v>
+      </c>
+      <c r="P77">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="78" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.59999999999998</v>
       </c>
       <c r="J78">
@@ -1426,10 +2155,20 @@
       <c r="K78">
         <v>3.58</v>
       </c>
-    </row>
-    <row r="79" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N78" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O78">
+        <f t="shared" si="4"/>
+        <v>14.59999999999998</v>
+      </c>
+      <c r="P78">
+        <v>3.58</v>
+      </c>
+    </row>
+    <row r="79" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.799999999999979</v>
       </c>
       <c r="J79">
@@ -1438,10 +2177,20 @@
       <c r="K79">
         <v>3.83</v>
       </c>
-    </row>
-    <row r="80" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N79" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O79">
+        <f t="shared" si="4"/>
+        <v>14.799999999999979</v>
+      </c>
+      <c r="P79">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="80" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>14.999999999999979</v>
       </c>
       <c r="J80">
@@ -1450,10 +2199,20 @@
       <c r="K80">
         <v>3.83</v>
       </c>
-    </row>
-    <row r="81" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N80" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O80">
+        <f t="shared" si="4"/>
+        <v>14.999999999999979</v>
+      </c>
+      <c r="P80">
+        <v>3.83</v>
+      </c>
+    </row>
+    <row r="81" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15.199999999999978</v>
       </c>
       <c r="J81">
@@ -1462,10 +2221,20 @@
       <c r="K81">
         <v>3.07</v>
       </c>
-    </row>
-    <row r="82" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N81" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O81">
+        <f t="shared" si="4"/>
+        <v>15.199999999999978</v>
+      </c>
+      <c r="P81">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="82" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15.399999999999977</v>
       </c>
       <c r="J82">
@@ -1474,10 +2243,20 @@
       <c r="K82">
         <v>3.07</v>
       </c>
-    </row>
-    <row r="83" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N82" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O82">
+        <f t="shared" si="4"/>
+        <v>15.399999999999977</v>
+      </c>
+      <c r="P82">
+        <v>3.07</v>
+      </c>
+    </row>
+    <row r="83" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15.599999999999977</v>
       </c>
       <c r="J83">
@@ -1486,10 +2265,20 @@
       <c r="K83">
         <v>3.62</v>
       </c>
-    </row>
-    <row r="84" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N83" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O83">
+        <f t="shared" si="4"/>
+        <v>15.599999999999977</v>
+      </c>
+      <c r="P83">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="84" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15.799999999999976</v>
       </c>
       <c r="J84">
@@ -1498,10 +2287,20 @@
       <c r="K84">
         <v>3.62</v>
       </c>
-    </row>
-    <row r="85" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N84" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O84">
+        <f t="shared" si="4"/>
+        <v>15.799999999999976</v>
+      </c>
+      <c r="P84">
+        <v>3.62</v>
+      </c>
+    </row>
+    <row r="85" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>15.999999999999975</v>
       </c>
       <c r="J85">
@@ -1510,10 +2309,20 @@
       <c r="K85">
         <v>3.53</v>
       </c>
-    </row>
-    <row r="86" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N85" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O85">
+        <f t="shared" si="4"/>
+        <v>15.999999999999975</v>
+      </c>
+      <c r="P85">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="86" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16.199999999999974</v>
       </c>
       <c r="J86">
@@ -1522,10 +2331,20 @@
       <c r="K86">
         <v>3.53</v>
       </c>
-    </row>
-    <row r="87" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N86" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O86">
+        <f t="shared" si="4"/>
+        <v>16.199999999999974</v>
+      </c>
+      <c r="P86">
+        <v>3.53</v>
+      </c>
+    </row>
+    <row r="87" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16.399999999999974</v>
       </c>
       <c r="J87">
@@ -1534,10 +2353,20 @@
       <c r="K87">
         <v>3.43</v>
       </c>
-    </row>
-    <row r="88" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N87" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O87">
+        <f t="shared" si="4"/>
+        <v>16.399999999999974</v>
+      </c>
+      <c r="P87">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="88" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16.599999999999973</v>
       </c>
       <c r="J88">
@@ -1546,10 +2375,20 @@
       <c r="K88">
         <v>3.43</v>
       </c>
-    </row>
-    <row r="89" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N88" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O88">
+        <f t="shared" si="4"/>
+        <v>16.599999999999973</v>
+      </c>
+      <c r="P88">
+        <v>3.43</v>
+      </c>
+    </row>
+    <row r="89" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16.799999999999972</v>
       </c>
       <c r="J89">
@@ -1558,10 +2397,20 @@
       <c r="K89">
         <v>3.76</v>
       </c>
-    </row>
-    <row r="90" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N89" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O89">
+        <f t="shared" si="4"/>
+        <v>16.799999999999972</v>
+      </c>
+      <c r="P89">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="90" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>16.999999999999972</v>
       </c>
       <c r="J90">
@@ -1570,10 +2419,20 @@
       <c r="K90">
         <v>3.76</v>
       </c>
-    </row>
-    <row r="91" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N90" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O90">
+        <f t="shared" si="4"/>
+        <v>16.999999999999972</v>
+      </c>
+      <c r="P90">
+        <v>3.76</v>
+      </c>
+    </row>
+    <row r="91" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17.199999999999971</v>
       </c>
       <c r="J91">
@@ -1582,10 +2441,20 @@
       <c r="K91">
         <v>3.27</v>
       </c>
-    </row>
-    <row r="92" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N91" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O91">
+        <f t="shared" si="4"/>
+        <v>17.199999999999971</v>
+      </c>
+      <c r="P91">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="92" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17.39999999999997</v>
       </c>
       <c r="J92">
@@ -1594,10 +2463,20 @@
       <c r="K92">
         <v>3.27</v>
       </c>
-    </row>
-    <row r="93" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N92" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O92">
+        <f t="shared" si="4"/>
+        <v>17.39999999999997</v>
+      </c>
+      <c r="P92">
+        <v>3.27</v>
+      </c>
+    </row>
+    <row r="93" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17.599999999999969</v>
       </c>
       <c r="J93">
@@ -1606,10 +2485,20 @@
       <c r="K93">
         <v>3.15</v>
       </c>
-    </row>
-    <row r="94" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N93" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O93">
+        <f t="shared" si="4"/>
+        <v>17.599999999999969</v>
+      </c>
+      <c r="P93">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="94" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17.799999999999969</v>
       </c>
       <c r="J94">
@@ -1618,10 +2507,20 @@
       <c r="K94">
         <v>3.15</v>
       </c>
-    </row>
-    <row r="95" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N94" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O94">
+        <f t="shared" si="4"/>
+        <v>17.799999999999969</v>
+      </c>
+      <c r="P94">
+        <v>3.15</v>
+      </c>
+    </row>
+    <row r="95" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>17.999999999999968</v>
       </c>
       <c r="J95">
@@ -1630,10 +2529,20 @@
       <c r="K95">
         <v>2.81</v>
       </c>
-    </row>
-    <row r="96" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N95" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O95">
+        <f t="shared" si="4"/>
+        <v>17.999999999999968</v>
+      </c>
+      <c r="P95">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="96" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18.199999999999967</v>
       </c>
       <c r="J96">
@@ -1642,10 +2551,20 @@
       <c r="K96">
         <v>2.4700000000000002</v>
       </c>
-    </row>
-    <row r="97" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N96" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O96">
+        <f t="shared" si="4"/>
+        <v>18.199999999999967</v>
+      </c>
+      <c r="P96">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18.399999999999967</v>
       </c>
       <c r="J97">
@@ -1654,10 +2573,20 @@
       <c r="K97">
         <v>2.4700000000000002</v>
       </c>
-    </row>
-    <row r="98" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N97" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O97">
+        <f t="shared" si="4"/>
+        <v>18.399999999999967</v>
+      </c>
+      <c r="P97">
+        <v>2.4700000000000002</v>
+      </c>
+    </row>
+    <row r="98" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18.599999999999966</v>
       </c>
       <c r="J98">
@@ -1666,10 +2595,20 @@
       <c r="K98">
         <v>3.05</v>
       </c>
-    </row>
-    <row r="99" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N98" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O98">
+        <f t="shared" si="4"/>
+        <v>18.599999999999966</v>
+      </c>
+      <c r="P98">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="99" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I99">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18.799999999999965</v>
       </c>
       <c r="J99">
@@ -1678,10 +2617,20 @@
       <c r="K99">
         <v>3.05</v>
       </c>
-    </row>
-    <row r="100" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N99" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O99">
+        <f t="shared" si="4"/>
+        <v>18.799999999999965</v>
+      </c>
+      <c r="P99">
+        <v>3.05</v>
+      </c>
+    </row>
+    <row r="100" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I100">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>18.999999999999964</v>
       </c>
       <c r="J100">
@@ -1690,10 +2639,20 @@
       <c r="K100">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="101" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N100" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O100">
+        <f t="shared" si="4"/>
+        <v>18.999999999999964</v>
+      </c>
+      <c r="P100">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="101" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I101">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19.199999999999964</v>
       </c>
       <c r="J101">
@@ -1702,10 +2661,20 @@
       <c r="K101">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="102" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N101" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O101">
+        <f t="shared" si="4"/>
+        <v>19.199999999999964</v>
+      </c>
+      <c r="P101">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="102" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I102">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>19.399999999999963</v>
       </c>
       <c r="J102">
@@ -1714,10 +2683,20 @@
       <c r="K102">
         <v>2.0299999999999998</v>
       </c>
-    </row>
-    <row r="103" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N102" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O102">
+        <f t="shared" si="4"/>
+        <v>19.399999999999963</v>
+      </c>
+      <c r="P102">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="103" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I103">
-        <f t="shared" ref="I103:I135" si="3">I102+1/5</f>
+        <f t="shared" ref="I103:I135" si="5">I102+1/5</f>
         <v>19.599999999999962</v>
       </c>
       <c r="J103">
@@ -1726,10 +2705,20 @@
       <c r="K103">
         <v>2.0299999999999998</v>
       </c>
-    </row>
-    <row r="104" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N103" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O103">
+        <f t="shared" si="4"/>
+        <v>19.599999999999962</v>
+      </c>
+      <c r="P103">
+        <v>2.0299999999999998</v>
+      </c>
+    </row>
+    <row r="104" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>19.799999999999962</v>
       </c>
       <c r="J104">
@@ -1738,10 +2727,20 @@
       <c r="K104">
         <v>2.06</v>
       </c>
-    </row>
-    <row r="105" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N104" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O104">
+        <f t="shared" si="4"/>
+        <v>19.799999999999962</v>
+      </c>
+      <c r="P104">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="105" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>19.999999999999961</v>
       </c>
       <c r="J105">
@@ -1750,10 +2749,20 @@
       <c r="K105">
         <v>2.06</v>
       </c>
-    </row>
-    <row r="106" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N105" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O105">
+        <f t="shared" si="4"/>
+        <v>19.999999999999961</v>
+      </c>
+      <c r="P105">
+        <v>2.06</v>
+      </c>
+    </row>
+    <row r="106" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>20.19999999999996</v>
       </c>
       <c r="J106">
@@ -1762,10 +2771,20 @@
       <c r="K106">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="107" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N106" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O106">
+        <f t="shared" si="4"/>
+        <v>20.19999999999996</v>
+      </c>
+      <c r="P106">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="107" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>20.399999999999959</v>
       </c>
       <c r="J107">
@@ -1774,10 +2793,20 @@
       <c r="K107">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="108" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N107" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O107">
+        <f t="shared" si="4"/>
+        <v>20.399999999999959</v>
+      </c>
+      <c r="P107">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="108" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>20.599999999999959</v>
       </c>
       <c r="J108">
@@ -1786,10 +2815,20 @@
       <c r="K108">
         <v>2.4300000000000002</v>
       </c>
-    </row>
-    <row r="109" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N108" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O108">
+        <f t="shared" si="4"/>
+        <v>20.599999999999959</v>
+      </c>
+      <c r="P108">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="109" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>20.799999999999958</v>
       </c>
       <c r="J109">
@@ -1798,10 +2837,20 @@
       <c r="K109">
         <v>2.4300000000000002</v>
       </c>
-    </row>
-    <row r="110" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N109" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O109">
+        <f t="shared" si="4"/>
+        <v>20.799999999999958</v>
+      </c>
+      <c r="P109">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="110" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>20.999999999999957</v>
       </c>
       <c r="J110">
@@ -1810,10 +2859,20 @@
       <c r="K110">
         <v>2.23</v>
       </c>
-    </row>
-    <row r="111" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N110" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O110">
+        <f t="shared" si="4"/>
+        <v>20.999999999999957</v>
+      </c>
+      <c r="P110">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="111" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>21.199999999999957</v>
       </c>
       <c r="J111">
@@ -1822,10 +2881,20 @@
       <c r="K111">
         <v>2.23</v>
       </c>
-    </row>
-    <row r="112" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N111" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O111">
+        <f t="shared" si="4"/>
+        <v>21.199999999999957</v>
+      </c>
+      <c r="P111">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="112" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I112">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>21.399999999999956</v>
       </c>
       <c r="J112">
@@ -1834,10 +2903,20 @@
       <c r="K112">
         <v>2.27</v>
       </c>
-    </row>
-    <row r="113" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N112" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O112">
+        <f t="shared" si="4"/>
+        <v>21.399999999999956</v>
+      </c>
+      <c r="P112">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="113" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I113">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>21.599999999999955</v>
       </c>
       <c r="J113">
@@ -1846,10 +2925,20 @@
       <c r="K113">
         <v>2.27</v>
       </c>
-    </row>
-    <row r="114" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N113" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O113">
+        <f t="shared" si="4"/>
+        <v>21.599999999999955</v>
+      </c>
+      <c r="P113">
+        <v>2.27</v>
+      </c>
+    </row>
+    <row r="114" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I114">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>21.799999999999955</v>
       </c>
       <c r="J114">
@@ -1858,10 +2947,20 @@
       <c r="K114">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="115" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N114" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O114">
+        <f t="shared" si="4"/>
+        <v>21.799999999999955</v>
+      </c>
+      <c r="P114">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="115" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I115">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>21.999999999999954</v>
       </c>
       <c r="J115">
@@ -1870,10 +2969,20 @@
       <c r="K115">
         <v>2.37</v>
       </c>
-    </row>
-    <row r="116" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N115" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O115">
+        <f t="shared" si="4"/>
+        <v>21.999999999999954</v>
+      </c>
+      <c r="P115">
+        <v>2.37</v>
+      </c>
+    </row>
+    <row r="116" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I116">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>22.199999999999953</v>
       </c>
       <c r="J116">
@@ -1882,10 +2991,20 @@
       <c r="K116">
         <v>2.42</v>
       </c>
-    </row>
-    <row r="117" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N116" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O116">
+        <f t="shared" si="4"/>
+        <v>22.199999999999953</v>
+      </c>
+      <c r="P116">
+        <v>2.42</v>
+      </c>
+    </row>
+    <row r="117" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I117">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>22.399999999999952</v>
       </c>
       <c r="J117">
@@ -1894,10 +3013,20 @@
       <c r="K117">
         <v>2.23</v>
       </c>
-    </row>
-    <row r="118" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N117" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O117">
+        <f t="shared" si="4"/>
+        <v>22.399999999999952</v>
+      </c>
+      <c r="P117">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="118" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I118">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>22.599999999999952</v>
       </c>
       <c r="J118">
@@ -1906,10 +3035,20 @@
       <c r="K118">
         <v>2.23</v>
       </c>
-    </row>
-    <row r="119" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N118" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O118">
+        <f t="shared" si="4"/>
+        <v>22.599999999999952</v>
+      </c>
+      <c r="P118">
+        <v>2.23</v>
+      </c>
+    </row>
+    <row r="119" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I119">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>22.799999999999951</v>
       </c>
       <c r="J119">
@@ -1918,10 +3057,20 @@
       <c r="K119">
         <v>2.4500000000000002</v>
       </c>
-    </row>
-    <row r="120" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N119" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O119">
+        <f t="shared" si="4"/>
+        <v>22.799999999999951</v>
+      </c>
+      <c r="P119">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="120" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I120">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>22.99999999999995</v>
       </c>
       <c r="J120">
@@ -1930,10 +3079,20 @@
       <c r="K120">
         <v>2.4500000000000002</v>
       </c>
-    </row>
-    <row r="121" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N120" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O120">
+        <f t="shared" si="4"/>
+        <v>22.99999999999995</v>
+      </c>
+      <c r="P120">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="121" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I121">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>23.19999999999995</v>
       </c>
       <c r="J121">
@@ -1942,10 +3101,20 @@
       <c r="K121">
         <v>2.4300000000000002</v>
       </c>
-    </row>
-    <row r="122" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N121" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O121">
+        <f t="shared" si="4"/>
+        <v>23.19999999999995</v>
+      </c>
+      <c r="P121">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="122" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I122">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>23.399999999999949</v>
       </c>
       <c r="J122">
@@ -1954,10 +3123,20 @@
       <c r="K122">
         <v>2.4300000000000002</v>
       </c>
-    </row>
-    <row r="123" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N122" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O122">
+        <f t="shared" si="4"/>
+        <v>23.399999999999949</v>
+      </c>
+      <c r="P122">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="123" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I123">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>23.599999999999948</v>
       </c>
       <c r="J123">
@@ -1966,10 +3145,20 @@
       <c r="K123">
         <v>2.4500000000000002</v>
       </c>
-    </row>
-    <row r="124" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N123" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O123">
+        <f t="shared" si="4"/>
+        <v>23.599999999999948</v>
+      </c>
+      <c r="P123">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="124" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I124">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>23.799999999999947</v>
       </c>
       <c r="J124">
@@ -1978,10 +3167,20 @@
       <c r="K124">
         <v>2.4500000000000002</v>
       </c>
-    </row>
-    <row r="125" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N124" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O124">
+        <f t="shared" si="4"/>
+        <v>23.799999999999947</v>
+      </c>
+      <c r="P124">
+        <v>2.4500000000000002</v>
+      </c>
+    </row>
+    <row r="125" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I125">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>23.999999999999947</v>
       </c>
       <c r="J125">
@@ -1990,10 +3189,20 @@
       <c r="K125">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="126" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N125" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O125">
+        <f t="shared" si="4"/>
+        <v>23.999999999999947</v>
+      </c>
+      <c r="P125">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="126" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I126">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>24.199999999999946</v>
       </c>
       <c r="J126">
@@ -2002,10 +3211,20 @@
       <c r="K126">
         <v>2.35</v>
       </c>
-    </row>
-    <row r="127" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N126" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O126">
+        <f t="shared" si="4"/>
+        <v>24.199999999999946</v>
+      </c>
+      <c r="P126">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="127" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I127">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>24.399999999999945</v>
       </c>
       <c r="J127">
@@ -2014,10 +3233,20 @@
       <c r="K127">
         <v>2.5099999999999998</v>
       </c>
-    </row>
-    <row r="128" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N127" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O127">
+        <f t="shared" si="4"/>
+        <v>24.399999999999945</v>
+      </c>
+      <c r="P127">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="128" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I128">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>24.599999999999945</v>
       </c>
       <c r="J128">
@@ -2026,10 +3255,20 @@
       <c r="K128">
         <v>2.5099999999999998</v>
       </c>
-    </row>
-    <row r="129" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N128" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O128">
+        <f t="shared" si="4"/>
+        <v>24.599999999999945</v>
+      </c>
+      <c r="P128">
+        <v>2.5099999999999998</v>
+      </c>
+    </row>
+    <row r="129" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I129">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>24.799999999999944</v>
       </c>
       <c r="J129">
@@ -2038,10 +3277,20 @@
       <c r="K129">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="130" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N129" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O129">
+        <f t="shared" si="4"/>
+        <v>24.799999999999944</v>
+      </c>
+      <c r="P129">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="130" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I130">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>24.999999999999943</v>
       </c>
       <c r="J130">
@@ -2050,10 +3299,20 @@
       <c r="K130">
         <v>2.38</v>
       </c>
-    </row>
-    <row r="131" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N130" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O130">
+        <f t="shared" si="4"/>
+        <v>24.999999999999943</v>
+      </c>
+      <c r="P130">
+        <v>2.38</v>
+      </c>
+    </row>
+    <row r="131" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I131">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>25.199999999999942</v>
       </c>
       <c r="J131">
@@ -2062,10 +3321,20 @@
       <c r="K131">
         <v>2.08</v>
       </c>
-    </row>
-    <row r="132" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N131" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O131">
+        <f t="shared" si="4"/>
+        <v>25.199999999999942</v>
+      </c>
+      <c r="P131">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="132" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I132">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>25.399999999999942</v>
       </c>
       <c r="J132">
@@ -2074,10 +3343,20 @@
       <c r="K132">
         <v>2.08</v>
       </c>
-    </row>
-    <row r="133" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N132" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O132">
+        <f t="shared" si="4"/>
+        <v>25.399999999999942</v>
+      </c>
+      <c r="P132">
+        <v>2.08</v>
+      </c>
+    </row>
+    <row r="133" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I133">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>25.599999999999941</v>
       </c>
       <c r="J133">
@@ -2086,10 +3365,20 @@
       <c r="K133">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="134" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N133" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O133">
+        <f t="shared" si="4"/>
+        <v>25.599999999999941</v>
+      </c>
+      <c r="P133">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="134" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I134">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>25.79999999999994</v>
       </c>
       <c r="J134">
@@ -2098,16 +3387,36 @@
       <c r="K134">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="135" spans="9:11" x14ac:dyDescent="0.3">
+      <c r="N134" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O134">
+        <f t="shared" si="4"/>
+        <v>25.79999999999994</v>
+      </c>
+      <c r="P134">
+        <v>1.9</v>
+      </c>
+    </row>
+    <row r="135" spans="9:16" x14ac:dyDescent="0.3">
       <c r="I135">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>25.99999999999994</v>
       </c>
       <c r="J135">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="K135">
+        <v>1.9</v>
+      </c>
+      <c r="N135" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O135">
+        <f t="shared" ref="O135" si="6">O134+1/5</f>
+        <v>25.99999999999994</v>
+      </c>
+      <c r="P135">
         <v>1.9</v>
       </c>
     </row>
